--- a/Daily Schedule/Daily-Work-Schedule.xlsx
+++ b/Daily Schedule/Daily-Work-Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\gitlibrary\Project-Process-library\Daily Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRE\gitlibrary\Project-Process-library\Daily Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DAILY WORK SCHEDULE</t>
   </si>
@@ -55,6 +55,26 @@
   </si>
   <si>
     <t>Results description</t>
+  </si>
+  <si>
+    <t>信美人寿办公系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴会议管理系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流行业ppt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化展会资料准备</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,7 +529,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,16 +608,14 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>20170407</v>
-      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="13"/>
       <c r="J5" s="6"/>
     </row>
@@ -605,7 +623,9 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -618,7 +638,9 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="14"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -631,14 +653,18 @@
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5">

--- a/Daily Schedule/Daily-Work-Schedule.xlsx
+++ b/Daily Schedule/Daily-Work-Schedule.xlsx
@@ -14,66 +14,64 @@
   <sheets>
     <sheet name="0116" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DAILY WORK SCHEDULE</t>
   </si>
   <si>
+    <t>« Enter the starting date</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>To-do</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>WorkDays</t>
+  </si>
+  <si>
+    <t>DeadLine（dates）</t>
+  </si>
+  <si>
+    <t>Actual results（%）</t>
+  </si>
+  <si>
+    <t>Results description</t>
+  </si>
+  <si>
+    <t>包商银行农贷项目实施方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行平台金融实施方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行手机银行实施方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行立项材料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Today:</t>
-  </si>
-  <si>
-    <t>« Enter the starting date</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>To-do</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Start Time</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>WorkDays</t>
-  </si>
-  <si>
-    <t>DeadLine（dates）</t>
-  </si>
-  <si>
-    <t>Actual results（%）</t>
-  </si>
-  <si>
-    <t>Results description</t>
-  </si>
-  <si>
-    <t>信美人寿办公系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作伙伴会议管理系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流行业ppt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纸化展会资料准备</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +83,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +139,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,7 +573,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -572,36 +582,36 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -609,14 +619,27 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="13"/>
+      <c r="E5" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="F5" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -624,12 +647,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="13"/>
       <c r="J6" s="6"/>
@@ -639,12 +667,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="13"/>
       <c r="J7" s="6"/>
@@ -654,17 +687,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E8" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="F8" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <f ca="1">TODAY()</f>
+        <v>42977</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5">
@@ -906,7 +950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H12">
+  <conditionalFormatting sqref="H6:H7 H9:H12">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="num" val="1"/>
